--- a/작업일지/노창현/졸작 계획서_노창현_2학기.xlsx
+++ b/작업일지/노창현/졸작 계획서_노창현_2학기.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\작업일지\노창현\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E098D7B-59B9-4F2C-822A-311836482771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2B317-8457-4BF8-A151-CFF6964334EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2880" windowWidth="29205" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="3390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>졸업작품 제안서 발표 계획서</t>
   </si>
@@ -48,43 +48,39 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>종설기 발표 준비</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>기말고사</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>유데미  Kitbash 구축 강의</t>
+    <t>종설기 기말 발표 제안서 제작</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>게임내의 사용할 캐릭터 애니메이션 만들기</t>
+    <t>kitbash 방식으로 벽,바닥,복도,천장을 만든다.</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 학습</t>
+    <t>언리얼에서 만든 오브젝트들로 맵을 만들고
+ 적절한 조명 효과 적용</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>게임내의 사용할 오브젝트 만들기</t>
+    <t>방의 컨셉을 설정하고 컨셉에
+어울리는 오브젝트를 제작하고 배치한다.</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 관련 강의 수강 및 학습</t>
+    <t>블렌더 캐릭터 모델링 실전 가이드 도서 구매 후
+학습 및 실습</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>사용할 캐릭터 만들기</t>
+    <t>게임 내의 사용할 캐릭터 컨셉 설정 
+및 캐릭터 제작 몸체,얼굴,헤어</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>언리얼에 제작한 모델 및 맵 적용 방법 학습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>유데미 블렌더 관련 강의 학습</t>
+    <t>캐릭터가 사용할 소품 제작</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -622,6 +618,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,7 +700,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -735,6 +749,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,23 +776,23 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1100,8 +1132,8 @@
   </sheetPr>
   <dimension ref="B1:AD33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20:AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1113,48 +1145,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="17">
         <f>DATEVALUE("2023/08/28")</f>
         <v>45166</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1548,33 +1580,29 @@
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="12" t="str">
@@ -1994,69 +2022,69 @@
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="16" t="s">
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="12" t="str">
         <f>TEXT("","aaa")</f>
         <v/>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="14"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="13"/>
@@ -2449,42 +2477,40 @@
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="22" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="22" t="s">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="12" t="str">
@@ -2498,20 +2524,20 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="13"/>
@@ -2904,42 +2930,38 @@
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="18" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
       <c r="B27" s="12" t="str">
@@ -3359,15 +3381,15 @@
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="C32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="13"/>
@@ -3425,25 +3447,23 @@
       <c r="AD33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="C32:I32"/>
+  <mergeCells count="16">
+    <mergeCell ref="J14:P15"/>
+    <mergeCell ref="Q14:W15"/>
+    <mergeCell ref="J20:P21"/>
+    <mergeCell ref="Q20:W21"/>
     <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:W14"/>
     <mergeCell ref="X26:AD26"/>
     <mergeCell ref="Q26:W26"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="J26:P26"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="X8:AD8"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">

--- a/작업일지/노창현/졸작 계획서_노창현_2학기.xlsx
+++ b/작업일지/노창현/졸작 계획서_노창현_2학기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\작업일지\노창현\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2B317-8457-4BF8-A151-CFF6964334EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535C56D-DBE9-43C1-A927-458348E28296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1920" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -36,52 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>졸업작품 제안서 발표 계획서</t>
   </si>
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
-  </si>
-  <si>
-    <t>중간고사</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>기말고사</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>종설기 기말 발표 제안서 제작</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>kitbash 방식으로 벽,바닥,복도,천장을 만든다.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>언리얼에서 만든 오브젝트들로 맵을 만들고
- 적절한 조명 효과 적용</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>방의 컨셉을 설정하고 컨셉에
-어울리는 오브젝트를 제작하고 배치한다.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>블렌더 캐릭터 모델링 실전 가이드 도서 구매 후
-학습 및 실습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 내의 사용할 캐릭터 컨셉 설정 
-및 캐릭터 제작 몸체,얼굴,헤어</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 사용할 소품 제작</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -92,7 +52,7 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
@@ -243,15 +203,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,32 +409,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -607,35 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,7 +600,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -754,45 +654,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1132,8 +993,8 @@
   </sheetPr>
   <dimension ref="B1:AD33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20:AD20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1182,8 +1043,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="17">
-        <f>DATEVALUE("2023/08/28")</f>
-        <v>45166</v>
+        <f>DATEVALUE("2023/12/25")</f>
+        <v>45285</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1193,7 +1054,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="str">
         <f>LOWER(TEXT(C6,"m월"))</f>
-        <v>8월</v>
+        <v>12월</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" ref="D4:I4" si="0">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
@@ -1209,7 +1070,7 @@
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>9월</v>
+        <v/>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1221,7 +1082,7 @@
       </c>
       <c r="J4" s="7" t="str">
         <f>LOWER(TEXT(J6,"m월"))</f>
-        <v>9월</v>
+        <v>1월</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" ref="K4:P4" si="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
@@ -1249,7 +1110,7 @@
       </c>
       <c r="Q4" s="6" t="str">
         <f>LOWER(TEXT(Q6,"m월"))</f>
-        <v>9월</v>
+        <v>1월</v>
       </c>
       <c r="R4" s="6" t="str">
         <f t="shared" ref="R4:W4" si="2">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
@@ -1277,7 +1138,7 @@
       </c>
       <c r="X4" s="7" t="str">
         <f>LOWER(TEXT(X6,"m월"))</f>
-        <v>9월</v>
+        <v>1월</v>
       </c>
       <c r="Y4" s="7" t="str">
         <f t="shared" ref="Y4:AD4" si="3">IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
@@ -1423,115 +1284,115 @@
       <c r="B6" s="15"/>
       <c r="C6" s="10">
         <f>C2</f>
-        <v>45166</v>
+        <v>45285</v>
       </c>
       <c r="D6" s="10">
         <f>C6+1</f>
-        <v>45167</v>
+        <v>45286</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ref="E6:Q6" si="5">D6+1</f>
-        <v>45168</v>
+        <v>45287</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="5"/>
-        <v>45169</v>
+        <v>45288</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="5"/>
-        <v>45170</v>
+        <v>45289</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="5"/>
-        <v>45171</v>
+        <v>45290</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="5"/>
-        <v>45172</v>
+        <v>45291</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="5"/>
-        <v>45173</v>
+        <v>45292</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="5"/>
-        <v>45174</v>
+        <v>45293</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" si="5"/>
-        <v>45175</v>
+        <v>45294</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="5"/>
-        <v>45176</v>
+        <v>45295</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="5"/>
-        <v>45177</v>
+        <v>45296</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" si="5"/>
-        <v>45178</v>
+        <v>45297</v>
       </c>
       <c r="P6" s="11">
         <f t="shared" si="5"/>
-        <v>45179</v>
+        <v>45298</v>
       </c>
       <c r="Q6" s="10">
         <f t="shared" si="5"/>
-        <v>45180</v>
+        <v>45299</v>
       </c>
       <c r="R6" s="10">
         <f t="shared" ref="R6:X6" si="6">Q6+1</f>
-        <v>45181</v>
+        <v>45300</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="6"/>
-        <v>45182</v>
+        <v>45301</v>
       </c>
       <c r="T6" s="10">
         <f t="shared" si="6"/>
-        <v>45183</v>
+        <v>45302</v>
       </c>
       <c r="U6" s="10">
         <f t="shared" si="6"/>
-        <v>45184</v>
+        <v>45303</v>
       </c>
       <c r="V6" s="10">
         <f t="shared" si="6"/>
-        <v>45185</v>
+        <v>45304</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="6"/>
-        <v>45186</v>
+        <v>45305</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="6"/>
-        <v>45187</v>
+        <v>45306</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" ref="Y6:AC6" si="7">X6+1</f>
-        <v>45188</v>
+        <v>45307</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="7"/>
-        <v>45189</v>
+        <v>45308</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="7"/>
-        <v>45190</v>
+        <v>45309</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="7"/>
-        <v>45191</v>
+        <v>45310</v>
       </c>
       <c r="AC6" s="11">
         <f t="shared" si="7"/>
-        <v>45192</v>
+        <v>45311</v>
       </c>
       <c r="AD6" s="11">
         <f>AC6+1</f>
-        <v>45193</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1">
@@ -1548,7 +1409,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
-      <c r="L7"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
@@ -1568,7 +1429,7 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="13"/>
     </row>
-    <row r="8" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="12" t="str">
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
@@ -1582,7 +1443,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
-      <c r="L8"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
@@ -1594,15 +1455,13 @@
       <c r="U8" s="14"/>
       <c r="V8" s="13"/>
       <c r="W8" s="14"/>
-      <c r="X8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="12" t="str">
@@ -1618,7 +1477,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
-      <c r="L9"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
@@ -1642,7 +1501,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="5" t="str">
         <f>LOWER(TEXT(C12,"m월"))</f>
-        <v>9월</v>
+        <v>1월</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" ref="D10:I10" si="8">IF(TEXT(D12,"m월")=TEXT(C12,"m월"),"",LOWER(TEXT(D12,"m월")))</f>
@@ -1666,11 +1525,11 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>10월</v>
+        <v/>
       </c>
       <c r="J10" s="7" t="str">
         <f>LOWER(TEXT(J12,"m월"))</f>
-        <v>10월</v>
+        <v>1월</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" ref="K10:P10" si="9">IF(TEXT(K12,"m월")=TEXT(J12,"m월"),"",LOWER(TEXT(K12,"m월")))</f>
@@ -1682,7 +1541,7 @@
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>2월</v>
       </c>
       <c r="N10" s="7" t="str">
         <f t="shared" si="9"/>
@@ -1698,7 +1557,7 @@
       </c>
       <c r="Q10" s="6" t="str">
         <f>LOWER(TEXT(Q12,"m월"))</f>
-        <v>10월</v>
+        <v>2월</v>
       </c>
       <c r="R10" s="6" t="str">
         <f t="shared" ref="R10:W10" si="10">IF(TEXT(R12,"m월")=TEXT(Q12,"m월"),"",LOWER(TEXT(R12,"m월")))</f>
@@ -1726,7 +1585,7 @@
       </c>
       <c r="X10" s="7" t="str">
         <f>LOWER(TEXT(X12,"m월"))</f>
-        <v>10월</v>
+        <v>2월</v>
       </c>
       <c r="Y10" s="7" t="str">
         <f t="shared" ref="Y10:AD10" si="11">IF(TEXT(Y12,"m월")=TEXT(X12,"m월"),"",LOWER(TEXT(Y12,"m월")))</f>
@@ -1872,115 +1731,115 @@
       <c r="B12" s="12"/>
       <c r="C12" s="10">
         <f>AD6+1</f>
-        <v>45194</v>
+        <v>45313</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" ref="D12:AD12" si="13">C12+1</f>
-        <v>45195</v>
+        <v>45314</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="13"/>
-        <v>45196</v>
+        <v>45315</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="13"/>
-        <v>45197</v>
+        <v>45316</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="13"/>
-        <v>45198</v>
+        <v>45317</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="13"/>
-        <v>45199</v>
+        <v>45318</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="13"/>
-        <v>45200</v>
+        <v>45319</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="13"/>
-        <v>45201</v>
+        <v>45320</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="13"/>
-        <v>45202</v>
+        <v>45321</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" si="13"/>
-        <v>45203</v>
+        <v>45322</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="13"/>
-        <v>45204</v>
+        <v>45323</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="13"/>
-        <v>45205</v>
+        <v>45324</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="13"/>
-        <v>45206</v>
+        <v>45325</v>
       </c>
       <c r="P12" s="11">
         <f t="shared" si="13"/>
-        <v>45207</v>
+        <v>45326</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="13"/>
-        <v>45208</v>
+        <v>45327</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" si="13"/>
-        <v>45209</v>
+        <v>45328</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="13"/>
-        <v>45210</v>
+        <v>45329</v>
       </c>
       <c r="T12" s="10">
         <f t="shared" si="13"/>
-        <v>45211</v>
+        <v>45330</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="13"/>
-        <v>45212</v>
+        <v>45331</v>
       </c>
       <c r="V12" s="10">
         <f t="shared" si="13"/>
-        <v>45213</v>
+        <v>45332</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="13"/>
-        <v>45214</v>
+        <v>45333</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="13"/>
-        <v>45215</v>
+        <v>45334</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="13"/>
-        <v>45216</v>
+        <v>45335</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="13"/>
-        <v>45217</v>
+        <v>45336</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="13"/>
-        <v>45218</v>
+        <v>45337</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
-        <v>45219</v>
+        <v>45338</v>
       </c>
       <c r="AC12" s="11">
         <f t="shared" si="13"/>
-        <v>45220</v>
+        <v>45339</v>
       </c>
       <c r="AD12" s="11">
         <f t="shared" si="13"/>
-        <v>45221</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="30" customHeight="1">
@@ -1997,7 +1856,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
-      <c r="L13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
@@ -2017,74 +1876,66 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:30" ht="30" customHeight="1">
       <c r="B14" s="12" t="str">
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="13"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="12" t="str">
         <f>TEXT("","aaa")</f>
         <v/>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="13"/>
@@ -2097,7 +1948,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="5" t="str">
         <f>LOWER(TEXT(C18,"m월"))</f>
-        <v>10월</v>
+        <v>2월</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" ref="D16:I16" si="14">IF(TEXT(D18,"m월")=TEXT(C18,"m월"),"",LOWER(TEXT(D18,"m월")))</f>
@@ -2125,7 +1976,7 @@
       </c>
       <c r="J16" s="7" t="str">
         <f>LOWER(TEXT(J18,"m월"))</f>
-        <v>10월</v>
+        <v>2월</v>
       </c>
       <c r="K16" s="7" t="str">
         <f t="shared" ref="K16:P16" si="15">IF(TEXT(K18,"m월")=TEXT(J18,"m월"),"",LOWER(TEXT(K18,"m월")))</f>
@@ -2133,7 +1984,7 @@
       </c>
       <c r="L16" s="7" t="str">
         <f t="shared" si="15"/>
-        <v>11월</v>
+        <v/>
       </c>
       <c r="M16" s="7" t="str">
         <f t="shared" si="15"/>
@@ -2141,7 +1992,7 @@
       </c>
       <c r="N16" s="7" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3월</v>
       </c>
       <c r="O16" s="7" t="str">
         <f t="shared" si="15"/>
@@ -2153,7 +2004,7 @@
       </c>
       <c r="Q16" s="6" t="str">
         <f>LOWER(TEXT(Q18,"m월"))</f>
-        <v>11월</v>
+        <v>3월</v>
       </c>
       <c r="R16" s="6" t="str">
         <f t="shared" ref="R16:W16" si="16">IF(TEXT(R18,"m월")=TEXT(Q18,"m월"),"",LOWER(TEXT(R18,"m월")))</f>
@@ -2181,7 +2032,7 @@
       </c>
       <c r="X16" s="7" t="str">
         <f>LOWER(TEXT(X18,"m월"))</f>
-        <v>11월</v>
+        <v>3월</v>
       </c>
       <c r="Y16" s="7" t="str">
         <f t="shared" ref="Y16:AD16" si="17">IF(TEXT(Y18,"m월")=TEXT(X18,"m월"),"",LOWER(TEXT(Y18,"m월")))</f>
@@ -2327,115 +2178,115 @@
       <c r="B18" s="12"/>
       <c r="C18" s="10">
         <f>AD12+1</f>
-        <v>45222</v>
+        <v>45341</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" ref="D18:AD18" si="19">C18+1</f>
-        <v>45223</v>
+        <v>45342</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="19"/>
-        <v>45224</v>
+        <v>45343</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="19"/>
-        <v>45225</v>
+        <v>45344</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="19"/>
-        <v>45226</v>
+        <v>45345</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="19"/>
-        <v>45227</v>
+        <v>45346</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="19"/>
-        <v>45228</v>
+        <v>45347</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="19"/>
-        <v>45229</v>
+        <v>45348</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" si="19"/>
-        <v>45230</v>
+        <v>45349</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" si="19"/>
-        <v>45231</v>
+        <v>45350</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="19"/>
-        <v>45232</v>
+        <v>45351</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="19"/>
-        <v>45233</v>
+        <v>45352</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="19"/>
-        <v>45234</v>
+        <v>45353</v>
       </c>
       <c r="P18" s="11">
         <f t="shared" si="19"/>
-        <v>45235</v>
+        <v>45354</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="19"/>
-        <v>45236</v>
+        <v>45355</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="19"/>
-        <v>45237</v>
+        <v>45356</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="19"/>
-        <v>45238</v>
+        <v>45357</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="19"/>
-        <v>45239</v>
+        <v>45358</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="19"/>
-        <v>45240</v>
+        <v>45359</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="19"/>
-        <v>45241</v>
+        <v>45360</v>
       </c>
       <c r="W18" s="10">
         <f t="shared" si="19"/>
-        <v>45242</v>
+        <v>45361</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="19"/>
-        <v>45243</v>
+        <v>45362</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="19"/>
-        <v>45244</v>
+        <v>45363</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="19"/>
-        <v>45245</v>
+        <v>45364</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="19"/>
-        <v>45246</v>
+        <v>45365</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="19"/>
-        <v>45247</v>
+        <v>45366</v>
       </c>
       <c r="AC18" s="11">
         <f t="shared" si="19"/>
-        <v>45248</v>
+        <v>45367</v>
       </c>
       <c r="AD18" s="11">
         <f t="shared" si="19"/>
-        <v>45249</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="19" spans="2:30" ht="30" customHeight="1">
@@ -2452,7 +2303,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
-      <c r="L19"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="14"/>
       <c r="N19" s="13"/>
       <c r="O19" s="14"/>
@@ -2472,45 +2323,39 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:30" ht="30" customHeight="1">
       <c r="B20" s="12" t="str">
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="12" t="str">
@@ -2524,20 +2369,20 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="13"/>
@@ -2550,7 +2395,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="5" t="str">
         <f>LOWER(TEXT(C24,"m월"))</f>
-        <v>11월</v>
+        <v>3월</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" ref="D22:I22" si="20">IF(TEXT(D24,"m월")=TEXT(C24,"m월"),"",LOWER(TEXT(D24,"m월")))</f>
@@ -2578,7 +2423,7 @@
       </c>
       <c r="J22" s="7" t="str">
         <f>LOWER(TEXT(J24,"m월"))</f>
-        <v>11월</v>
+        <v>3월</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" ref="K22:P22" si="21">IF(TEXT(K24,"m월")=TEXT(J24,"m월"),"",LOWER(TEXT(K24,"m월")))</f>
@@ -2594,7 +2439,7 @@
       </c>
       <c r="N22" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>12월</v>
+        <v/>
       </c>
       <c r="O22" s="7" t="str">
         <f t="shared" si="21"/>
@@ -2606,7 +2451,7 @@
       </c>
       <c r="Q22" s="6" t="str">
         <f>LOWER(TEXT(Q24,"m월"))</f>
-        <v>12월</v>
+        <v>4월</v>
       </c>
       <c r="R22" s="6" t="str">
         <f t="shared" ref="R22:W22" si="22">IF(TEXT(R24,"m월")=TEXT(Q24,"m월"),"",LOWER(TEXT(R24,"m월")))</f>
@@ -2634,7 +2479,7 @@
       </c>
       <c r="X22" s="7" t="str">
         <f>LOWER(TEXT(X24,"m월"))</f>
-        <v>12월</v>
+        <v>4월</v>
       </c>
       <c r="Y22" s="7" t="str">
         <f t="shared" ref="Y22:AD22" si="23">IF(TEXT(Y24,"m월")=TEXT(X24,"m월"),"",LOWER(TEXT(Y24,"m월")))</f>
@@ -2780,115 +2625,115 @@
       <c r="B24" s="12"/>
       <c r="C24" s="10">
         <f>AD18+1</f>
-        <v>45250</v>
+        <v>45369</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" ref="D24:AD24" si="25">C24+1</f>
-        <v>45251</v>
+        <v>45370</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="25"/>
-        <v>45252</v>
+        <v>45371</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="25"/>
-        <v>45253</v>
+        <v>45372</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="25"/>
-        <v>45254</v>
+        <v>45373</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="25"/>
-        <v>45255</v>
+        <v>45374</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="25"/>
-        <v>45256</v>
+        <v>45375</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="25"/>
-        <v>45257</v>
+        <v>45376</v>
       </c>
       <c r="K24" s="11">
         <f t="shared" si="25"/>
-        <v>45258</v>
+        <v>45377</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" si="25"/>
-        <v>45259</v>
+        <v>45378</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="25"/>
-        <v>45260</v>
+        <v>45379</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="25"/>
-        <v>45261</v>
+        <v>45380</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="25"/>
-        <v>45262</v>
+        <v>45381</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" si="25"/>
-        <v>45263</v>
+        <v>45382</v>
       </c>
       <c r="Q24" s="10">
         <f t="shared" si="25"/>
-        <v>45264</v>
+        <v>45383</v>
       </c>
       <c r="R24" s="10">
         <f t="shared" si="25"/>
-        <v>45265</v>
+        <v>45384</v>
       </c>
       <c r="S24" s="10">
         <f t="shared" si="25"/>
-        <v>45266</v>
+        <v>45385</v>
       </c>
       <c r="T24" s="10">
         <f t="shared" si="25"/>
-        <v>45267</v>
+        <v>45386</v>
       </c>
       <c r="U24" s="10">
         <f t="shared" si="25"/>
-        <v>45268</v>
+        <v>45387</v>
       </c>
       <c r="V24" s="10">
         <f t="shared" si="25"/>
-        <v>45269</v>
+        <v>45388</v>
       </c>
       <c r="W24" s="10">
         <f t="shared" si="25"/>
-        <v>45270</v>
+        <v>45389</v>
       </c>
       <c r="X24" s="11">
         <f t="shared" si="25"/>
-        <v>45271</v>
+        <v>45390</v>
       </c>
       <c r="Y24" s="11">
         <f t="shared" si="25"/>
-        <v>45272</v>
+        <v>45391</v>
       </c>
       <c r="Z24" s="11">
         <f t="shared" si="25"/>
-        <v>45273</v>
+        <v>45392</v>
       </c>
       <c r="AA24" s="11">
         <f t="shared" si="25"/>
-        <v>45274</v>
+        <v>45393</v>
       </c>
       <c r="AB24" s="11">
         <f t="shared" si="25"/>
-        <v>45275</v>
+        <v>45394</v>
       </c>
       <c r="AC24" s="11">
         <f t="shared" si="25"/>
-        <v>45276</v>
+        <v>45395</v>
       </c>
       <c r="AD24" s="11">
         <f t="shared" si="25"/>
-        <v>45277</v>
+        <v>45396</v>
       </c>
     </row>
     <row r="25" spans="2:30" ht="30" customHeight="1">
@@ -2905,7 +2750,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
-      <c r="L25"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="14"/>
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
@@ -2925,43 +2770,39 @@
       <c r="AC25" s="14"/>
       <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:30" ht="30" customHeight="1">
       <c r="B26" s="12" t="str">
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="13"/>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
       <c r="B27" s="12" t="str">
@@ -2977,7 +2818,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
-      <c r="L27"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="14"/>
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
@@ -3001,7 +2842,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="5" t="str">
         <f>LOWER(TEXT(C30,"m월"))</f>
-        <v>12월</v>
+        <v>4월</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" ref="D28:I28" si="26">IF(TEXT(D30,"m월")=TEXT(C30,"m월"),"",LOWER(TEXT(D30,"m월")))</f>
@@ -3029,7 +2870,7 @@
       </c>
       <c r="J28" s="7" t="str">
         <f>LOWER(TEXT(J30,"m월"))</f>
-        <v>12월</v>
+        <v>4월</v>
       </c>
       <c r="K28" s="7" t="str">
         <f t="shared" ref="K28:P28" si="27">IF(TEXT(K30,"m월")=TEXT(J30,"m월"),"",LOWER(TEXT(K30,"m월")))</f>
@@ -3057,7 +2898,7 @@
       </c>
       <c r="Q28" s="6" t="str">
         <f>LOWER(TEXT(Q30,"m월"))</f>
-        <v>1월</v>
+        <v>4월</v>
       </c>
       <c r="R28" s="6" t="str">
         <f t="shared" ref="R28:W28" si="28">IF(TEXT(R30,"m월")=TEXT(Q30,"m월"),"",LOWER(TEXT(R30,"m월")))</f>
@@ -3065,7 +2906,7 @@
       </c>
       <c r="S28" s="6" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>5월</v>
       </c>
       <c r="T28" s="6" t="str">
         <f t="shared" si="28"/>
@@ -3085,7 +2926,7 @@
       </c>
       <c r="X28" s="7" t="str">
         <f>LOWER(TEXT(X30,"m월"))</f>
-        <v>1월</v>
+        <v>5월</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f t="shared" ref="Y28:AD28" si="29">IF(TEXT(Y30,"m월")=TEXT(X30,"m월"),"",LOWER(TEXT(Y30,"m월")))</f>
@@ -3231,115 +3072,115 @@
       <c r="B30" s="12"/>
       <c r="C30" s="10">
         <f>AD24+1</f>
-        <v>45278</v>
+        <v>45397</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" ref="D30:AD30" si="31">C30+1</f>
-        <v>45279</v>
+        <v>45398</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="31"/>
-        <v>45280</v>
+        <v>45399</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="31"/>
-        <v>45281</v>
+        <v>45400</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="31"/>
-        <v>45282</v>
+        <v>45401</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="31"/>
-        <v>45283</v>
+        <v>45402</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="31"/>
-        <v>45284</v>
+        <v>45403</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="31"/>
-        <v>45285</v>
+        <v>45404</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="31"/>
-        <v>45286</v>
+        <v>45405</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="31"/>
-        <v>45287</v>
+        <v>45406</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="31"/>
-        <v>45288</v>
+        <v>45407</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="31"/>
-        <v>45289</v>
+        <v>45408</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="31"/>
-        <v>45290</v>
+        <v>45409</v>
       </c>
       <c r="P30" s="11">
         <f t="shared" si="31"/>
-        <v>45291</v>
+        <v>45410</v>
       </c>
       <c r="Q30" s="10">
         <f t="shared" si="31"/>
-        <v>45292</v>
+        <v>45411</v>
       </c>
       <c r="R30" s="10">
         <f t="shared" si="31"/>
-        <v>45293</v>
+        <v>45412</v>
       </c>
       <c r="S30" s="10">
         <f t="shared" si="31"/>
-        <v>45294</v>
+        <v>45413</v>
       </c>
       <c r="T30" s="10">
         <f t="shared" si="31"/>
-        <v>45295</v>
+        <v>45414</v>
       </c>
       <c r="U30" s="10">
         <f t="shared" si="31"/>
-        <v>45296</v>
+        <v>45415</v>
       </c>
       <c r="V30" s="10">
         <f t="shared" si="31"/>
-        <v>45297</v>
+        <v>45416</v>
       </c>
       <c r="W30" s="10">
         <f t="shared" si="31"/>
-        <v>45298</v>
+        <v>45417</v>
       </c>
       <c r="X30" s="11">
         <f t="shared" si="31"/>
-        <v>45299</v>
+        <v>45418</v>
       </c>
       <c r="Y30" s="11">
         <f t="shared" si="31"/>
-        <v>45300</v>
+        <v>45419</v>
       </c>
       <c r="Z30" s="11">
         <f t="shared" si="31"/>
-        <v>45301</v>
+        <v>45420</v>
       </c>
       <c r="AA30" s="11">
         <f t="shared" si="31"/>
-        <v>45302</v>
+        <v>45421</v>
       </c>
       <c r="AB30" s="11">
         <f t="shared" si="31"/>
-        <v>45303</v>
+        <v>45422</v>
       </c>
       <c r="AC30" s="11">
         <f t="shared" si="31"/>
-        <v>45304</v>
+        <v>45423</v>
       </c>
       <c r="AD30" s="11">
         <f t="shared" si="31"/>
-        <v>45305</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="31" spans="2:30" ht="30" customHeight="1">
@@ -3376,20 +3217,18 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="13"/>
     </row>
-    <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="2:30" ht="30" customHeight="1">
       <c r="B32" s="12" t="str">
         <f>TEXT("노창현","aaa")</f>
         <v>노창현</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="13"/>
@@ -3447,23 +3286,9 @@
       <c r="AD33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J14:P15"/>
-    <mergeCell ref="Q14:W15"/>
-    <mergeCell ref="J20:P21"/>
-    <mergeCell ref="Q20:W21"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="C14:I15"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="C32:I32"/>
+  <mergeCells count="2">
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="X8:AD8"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
